--- a/Simulations/collision_analysis.xlsx
+++ b/Simulations/collision_analysis.xlsx
@@ -7,8 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Total" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,414 +436,153 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tipo de Colisión</t>
+          <t>Partícula 1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Cantidad</t>
+          <t>Partícula 2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Colisiones</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Neutron + Any -&gt; Repulsion</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3402</v>
+          <t>boson</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>lepton</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>neutron + neutron</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1238</v>
+          <t>boson</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>neutron</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>higgs + neutron</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>685</v>
+          <t>lepton</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>neutron</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>neutron + higgs</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>380</v>
+          <t>boson</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>quark</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>neutron + lepton</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>377</v>
+          <t>neutron</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>quark</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>neutron + proton</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>294</v>
+          <t>lepton</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>quark</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>higgs + lepton</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>155</v>
+          <t>neutron</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>neutron</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>higgs + proton</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>141</v>
+          <t>quark</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>quark</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>neutron + quark</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>lepton + neutron</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>proton + neutron</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>higgs + higgs</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>neutron + boson</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>proton + lepton</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>proton + proton</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>higgs + quark</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>lepton + proton</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>lepton + lepton</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>quark + neutron</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>lepton + quark</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>proton + higgs</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>lepton + higgs</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>boson + proton</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>higgs + boson</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Proton + Quark -&gt; Higgs</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>boson + neutron</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Lepton + Boson -&gt; 3 Neutrones</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>proton + boson</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>proton + quark</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>quark + proton</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>boson + lepton</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>lepton + boson</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>quark + quark</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>quark + boson</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>boson + boson</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>quark + higgs</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+          <t>lepton</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>lepton</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>quark + lepton</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Total de Colisiones</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>7547</v>
       </c>
     </row>
   </sheetData>

--- a/Simulations/collision_analysis.xlsx
+++ b/Simulations/collision_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,140 +449,20 @@
           <t>Colisiones</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>boson</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>lepton</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>boson</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>neutron</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>lepton</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>neutron</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>boson</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>quark</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>neutron</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>quark</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>lepton</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>quark</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>neutron</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>neutron</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>quark</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>quark</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>lepton</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>lepton</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Energía acumulada</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Primera energía de impacto</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Última energía de impacto</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Simulations/collision_analysis.xlsx
+++ b/Simulations/collision_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,222 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Boson</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Proton</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002839926010888002</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.099815027220004e-05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.099815027220004e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Boson</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Boson</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.001042309820593164</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.628412126223573e-05</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.808346095165887e-05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Boson</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lepton</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.571374869699241e-05</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.571374869699241e-05</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.571374869699241e-05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Boson</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Neutron</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00014216766579715</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.165721423789733e-05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.051045155925271e-05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Higgs</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Neutron</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0003946312071772383</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.909700245398066e-05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.205307084545499e-05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Neutron</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Proton</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.001642340881048984</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.054349506985679e-05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.287671036744696e-05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Higgs</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Proton</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0006318484324949911</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.117912243341017e-05</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.622532266745014e-05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Boson</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Higgs</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0006664430765306159</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.940592596654578e-05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0001064711488992957</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Neutron</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Neutron</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.075079447716061e-05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.075079447716061e-05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.075079447716061e-05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
